--- a/exportorv2/test/Sample.xlsx
+++ b/exportorv2/test/Sample.xlsx
@@ -432,10 +432,6 @@
   </si>
   <si>
     <t>int64</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepeatCheck:true</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -638,6 +634,10 @@
   </si>
   <si>
     <t>物品id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true LuaIndex:true</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1129,28 +1129,28 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1164,43 +1164,43 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1214,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -1250,13 +1250,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1354,41 +1354,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1396,58 +1396,58 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/test/Sample.xlsx
+++ b/exportorv2/test/Sample.xlsx
@@ -617,27 +617,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default: "100"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true LuaIndex:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">TableName: "Sample" Proto2OutFileName: "sample_table_v2.proto" Proto3OutFileName: "sample_table_v3.proto" Package: "gamedef" </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default: "100"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepeatCheck:true LuaIndex:true</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1132,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
@@ -1187,14 +1187,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1354,7 +1354,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">

--- a/exportorv2/test/Sample.xlsx
+++ b/exportorv2/test/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TableName: "Sample" Proto2OutFileName: "sample_table_v2.proto" Proto3OutFileName: "sample_table_v3.proto" Package: "gamedef" </t>
+    <t xml:space="preserve">TableName: "Sample" Package: "gamedef" </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1339,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/exportorv2/test/Sample.xlsx
+++ b/exportorv2/test/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Fighter</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -371,10 +371,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -639,6 +635,34 @@
   <si>
     <t xml:space="preserve">TableName: "Sample" Package: "gamedef" </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1104,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1123,84 +1147,84 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1211,28 +1235,28 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1240,7 +1264,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>0.6</v>
@@ -1250,13 +1274,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1264,7 +1288,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>0.8</v>
@@ -1288,7 +1312,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
         <v>0.7</v>
@@ -1304,7 +1328,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1314,7 +1338,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1337,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1349,105 +1373,124 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/test/Sample.xlsx
+++ b/exportorv2/test/Sample.xlsx
@@ -472,10 +472,6 @@
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuaIndex:true</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -629,10 +625,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>RepeatCheck:true LuaIndex:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">TableName: "Sample" Package: "gamedef" </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -663,6 +655,14 @@
   <si>
     <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true LuaIndex:true CSharpIndex:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaIndex:true CSharpIndex:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1147,7 +1147,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1156,25 +1156,25 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1188,7 +1188,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
@@ -1200,10 +1200,10 @@
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -1211,20 +1211,20 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1238,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -1274,13 +1274,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1379,24 +1379,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
@@ -1410,13 +1410,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -1430,13 +1430,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1444,53 +1444,53 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/test/Sample.xlsx
+++ b/exportorv2/test/Sample.xlsx
@@ -657,11 +657,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>RepeatCheck:true LuaIndex:true CSharpIndex:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuaIndex:true CSharpIndex:true</t>
+    <t>RepeatCheck:true MakeIndex:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
